--- a/scripts/output.xlsx
+++ b/scripts/output.xlsx
@@ -2011,7 +2011,7 @@
       </c>
       <c r="D10" s="47" t="inlineStr">
         <is>
-          <t>Yen</t>
+          <t>葉O榮</t>
         </is>
       </c>
       <c r="E10" s="34" t="n"/>

--- a/scripts/output.xlsx
+++ b/scripts/output.xlsx
@@ -937,7 +937,7 @@
           <invertIfNegative val="0"/>
           <cat>
             <strRef>
-              <f>'Social Interaction'!$C$16:$C$19</f>
+              <f>'Social Interaction'!$C$16:$C$16</f>
               <strCache>
                 <ptCount val="2"/>
                 <pt idx="0">
@@ -951,7 +951,7 @@
           </cat>
           <val>
             <numRef>
-              <f>'Social Interaction'!$E$16:$E$19</f>
+              <f>'Social Interaction'!$E$16:$E$16</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="2"/>
@@ -1227,7 +1227,7 @@
           <invertIfNegative val="0"/>
           <cat>
             <strRef>
-              <f>'Social Interaction'!$C$16:$C$19</f>
+              <f>'Social Interaction'!$C$16:$C$16</f>
               <strCache>
                 <ptCount val="2"/>
                 <pt idx="0">
@@ -1241,7 +1241,7 @@
           </cat>
           <val>
             <numRef>
-              <f>'Social Interaction'!$F$16:$F$19</f>
+              <f>'Social Interaction'!$F$16:$F$16</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="2"/>
@@ -1595,7 +1595,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table3" displayName="Table3" ref="C15:F19" headerRowCount="1" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table3" displayName="Table3" ref="C15:F16" headerRowCount="1" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16">
   <autoFilter ref="C15:F17"/>
   <tableColumns count="4">
     <tableColumn id="1" name="SOP ID" dataDxfId="15"/>
@@ -1608,7 +1608,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1" displayName="Table1" ref="C9:E12" headerRowCount="1" totalsRowShown="0" headerRowDxfId="11" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1" displayName="Table1" ref="C9:E10" headerRowCount="1" totalsRowShown="0" headerRowDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="C9:E11"/>
   <tableColumns count="3">
     <tableColumn id="1" name="SOP ID" dataDxfId="9"/>
@@ -1620,7 +1620,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table2" displayName="Table2" ref="C9:G19" headerRowCount="1" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table2" displayName="Table2" ref="C9:G11" headerRowCount="1" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="C9:G11"/>
   <tableColumns count="5">
     <tableColumn id="1" name="SOP ID" dataDxfId="4"/>
@@ -1835,7 +1835,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="D9" s="28" t="inlineStr">
         <is>
-          <t>秘書處第三組</t>
+          <t>教務處註冊組</t>
         </is>
       </c>
       <c r="E9" s="31" t="n"/>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="D10" s="47" t="inlineStr">
         <is>
-          <t>葉O榮</t>
+          <t>王O忠</t>
         </is>
       </c>
       <c r="E10" s="34" t="n"/>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="D11" s="25" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="E11" s="3" t="n"/>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="D12" s="25" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="E12" s="3" t="n"/>
@@ -2134,19 +2134,19 @@
       <c r="B16" s="2" t="inlineStr"/>
       <c r="C16" s="40" t="inlineStr">
         <is>
-          <t>S000000007</t>
+          <t>S000000001</t>
         </is>
       </c>
       <c r="D16" s="40" t="inlineStr">
         <is>
-          <t>工程類實務捐贈</t>
+          <t>流程更新測試</t>
         </is>
       </c>
       <c r="E16" s="40" t="n">
-        <v>336</v>
+        <v>105</v>
       </c>
       <c r="F16" s="40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="40" t="inlineStr"/>
       <c r="H16" s="40" t="inlineStr"/>
@@ -2155,118 +2155,82 @@
       <c r="K16" s="4" t="inlineStr"/>
     </row>
     <row r="17" ht="32.25" customHeight="1">
-      <c r="B17" s="2" t="inlineStr"/>
-      <c r="C17" s="40" t="inlineStr">
-        <is>
-          <t>S000000008</t>
-        </is>
-      </c>
-      <c r="D17" s="40" t="inlineStr">
-        <is>
-          <t>新的 SOP 名稱</t>
-        </is>
-      </c>
-      <c r="E17" s="40" t="n">
-        <v>5</v>
-      </c>
-      <c r="F17" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="40" t="inlineStr"/>
-      <c r="H17" s="40" t="inlineStr"/>
-      <c r="I17" s="40" t="inlineStr"/>
-      <c r="J17" s="40" t="inlineStr"/>
-      <c r="K17" s="4" t="inlineStr"/>
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="2" t="n"/>
+      <c r="C17" s="40" t="n"/>
+      <c r="D17" s="40" t="n"/>
+      <c r="E17" s="40" t="n"/>
+      <c r="F17" s="40" t="n"/>
+      <c r="G17" s="3" t="n"/>
+      <c r="H17" s="3" t="n"/>
+      <c r="I17" s="3" t="n"/>
+      <c r="J17" s="3" t="n"/>
+      <c r="K17" s="4" t="n"/>
+      <c r="L17" s="1" t="n"/>
     </row>
     <row r="18" ht="32.25" customHeight="1">
-      <c r="B18" s="2" t="inlineStr"/>
-      <c r="C18" s="40" t="inlineStr">
-        <is>
-          <t>S000000011</t>
-        </is>
-      </c>
-      <c r="D18" s="40" t="inlineStr">
-        <is>
-          <t>test002</t>
-        </is>
-      </c>
-      <c r="E18" s="40" t="n">
-        <v>6</v>
-      </c>
-      <c r="F18" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="40" t="inlineStr"/>
-      <c r="H18" s="40" t="inlineStr"/>
-      <c r="I18" s="40" t="inlineStr"/>
-      <c r="J18" s="40" t="inlineStr"/>
-      <c r="K18" s="4" t="inlineStr"/>
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="2" t="n"/>
+      <c r="C18" s="39" t="n"/>
+      <c r="D18" s="40" t="n"/>
+      <c r="E18" s="40" t="n"/>
+      <c r="F18" s="40" t="n"/>
+      <c r="G18" s="3" t="n"/>
+      <c r="H18" s="3" t="n"/>
+      <c r="I18" s="3" t="n"/>
+      <c r="J18" s="3" t="n"/>
+      <c r="K18" s="4" t="n"/>
+      <c r="L18" s="1" t="n"/>
     </row>
     <row r="19" ht="32.25" customHeight="1">
-      <c r="B19" s="2" t="inlineStr"/>
-      <c r="C19" s="40" t="inlineStr">
-        <is>
-          <t>S000000012</t>
-        </is>
-      </c>
-      <c r="D19" s="40" t="inlineStr">
-        <is>
-          <t>嘎嘎</t>
-        </is>
-      </c>
-      <c r="E19" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="40" t="inlineStr"/>
-      <c r="H19" s="40" t="inlineStr"/>
-      <c r="I19" s="40" t="inlineStr"/>
-      <c r="J19" s="40" t="inlineStr"/>
-      <c r="K19" s="4" t="inlineStr"/>
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="2" t="n"/>
+      <c r="C19" s="39" t="n"/>
+      <c r="D19" s="40" t="n"/>
+      <c r="E19" s="40" t="n"/>
+      <c r="F19" s="40" t="n"/>
+      <c r="G19" s="26" t="n"/>
+      <c r="H19" s="26" t="n"/>
+      <c r="I19" s="26" t="n"/>
+      <c r="J19" s="26" t="n"/>
+      <c r="K19" s="4" t="n"/>
+      <c r="L19" s="1" t="n"/>
     </row>
     <row r="20" ht="37.5" customHeight="1">
-      <c r="A20" s="1" t="n"/>
       <c r="B20" s="2" t="n"/>
-      <c r="C20" s="40" t="n"/>
+      <c r="C20" s="39" t="n"/>
       <c r="D20" s="40" t="n"/>
       <c r="E20" s="40" t="n"/>
       <c r="F20" s="40" t="n"/>
-      <c r="G20" s="3" t="n"/>
-      <c r="H20" s="3" t="n"/>
-      <c r="I20" s="3" t="n"/>
-      <c r="J20" s="3" t="n"/>
+      <c r="G20" s="20" t="n"/>
+      <c r="H20" s="20" t="n"/>
+      <c r="I20" s="20" t="n"/>
+      <c r="J20" s="20" t="n"/>
       <c r="K20" s="4" t="n"/>
-      <c r="L20" s="1" t="n"/>
     </row>
     <row r="21" ht="32.25" customHeight="1">
-      <c r="A21" s="1" t="n"/>
       <c r="B21" s="2" t="n"/>
       <c r="C21" s="39" t="n"/>
       <c r="D21" s="40" t="n"/>
       <c r="E21" s="40" t="n"/>
       <c r="F21" s="40" t="n"/>
-      <c r="G21" s="3" t="n"/>
-      <c r="H21" s="3" t="n"/>
-      <c r="I21" s="3" t="n"/>
-      <c r="J21" s="3" t="n"/>
+      <c r="G21" s="20" t="n"/>
+      <c r="H21" s="20" t="n"/>
+      <c r="I21" s="20" t="n"/>
+      <c r="J21" s="20" t="n"/>
       <c r="K21" s="4" t="n"/>
-      <c r="L21" s="1" t="n"/>
     </row>
     <row r="22" ht="32.25" customHeight="1">
-      <c r="A22" s="1" t="n"/>
       <c r="B22" s="2" t="n"/>
       <c r="C22" s="39" t="n"/>
       <c r="D22" s="40" t="n"/>
       <c r="E22" s="40" t="n"/>
       <c r="F22" s="40" t="n"/>
-      <c r="G22" s="26" t="n"/>
-      <c r="H22" s="26" t="n"/>
-      <c r="I22" s="26" t="n"/>
-      <c r="J22" s="26" t="n"/>
+      <c r="G22" s="20" t="n"/>
+      <c r="H22" s="20" t="n"/>
+      <c r="I22" s="20" t="n"/>
+      <c r="J22" s="20" t="n"/>
       <c r="K22" s="4" t="n"/>
-      <c r="L22" s="1" t="n"/>
     </row>
     <row r="23" ht="32.25" customHeight="1">
       <c r="B23" s="2" t="n"/>
@@ -2353,53 +2317,20 @@
       <c r="K29" s="4" t="n"/>
     </row>
     <row r="30" ht="32.25" customHeight="1">
-      <c r="B30" s="2" t="n"/>
-      <c r="C30" s="39" t="n"/>
-      <c r="D30" s="40" t="n"/>
-      <c r="E30" s="40" t="n"/>
-      <c r="F30" s="40" t="n"/>
-      <c r="G30" s="20" t="n"/>
-      <c r="H30" s="20" t="n"/>
-      <c r="I30" s="20" t="n"/>
-      <c r="J30" s="20" t="n"/>
-      <c r="K30" s="4" t="n"/>
-    </row>
-    <row r="31" ht="32.25" customHeight="1">
-      <c r="B31" s="2" t="n"/>
-      <c r="C31" s="39" t="n"/>
-      <c r="D31" s="40" t="n"/>
-      <c r="E31" s="40" t="n"/>
-      <c r="F31" s="40" t="n"/>
-      <c r="G31" s="20" t="n"/>
-      <c r="H31" s="20" t="n"/>
-      <c r="I31" s="20" t="n"/>
-      <c r="J31" s="20" t="n"/>
-      <c r="K31" s="4" t="n"/>
-    </row>
-    <row r="32">
-      <c r="B32" s="2" t="n"/>
-      <c r="C32" s="39" t="n"/>
-      <c r="D32" s="40" t="n"/>
-      <c r="E32" s="40" t="n"/>
-      <c r="F32" s="40" t="n"/>
-      <c r="G32" s="20" t="n"/>
-      <c r="H32" s="20" t="n"/>
-      <c r="I32" s="20" t="n"/>
-      <c r="J32" s="20" t="n"/>
-      <c r="K32" s="4" t="n"/>
-    </row>
-    <row r="33">
-      <c r="B33" s="5" t="n"/>
-      <c r="C33" s="6" t="n"/>
-      <c r="D33" s="6" t="n"/>
-      <c r="E33" s="6" t="n"/>
-      <c r="F33" s="6" t="n"/>
-      <c r="G33" s="6" t="n"/>
-      <c r="H33" s="6" t="n"/>
-      <c r="I33" s="6" t="n"/>
-      <c r="J33" s="6" t="n"/>
-      <c r="K33" s="7" t="n"/>
-    </row>
+      <c r="B30" s="5" t="n"/>
+      <c r="C30" s="6" t="n"/>
+      <c r="D30" s="6" t="n"/>
+      <c r="E30" s="6" t="n"/>
+      <c r="F30" s="6" t="n"/>
+      <c r="G30" s="6" t="n"/>
+      <c r="H30" s="6" t="n"/>
+      <c r="I30" s="6" t="n"/>
+      <c r="J30" s="6" t="n"/>
+      <c r="K30" s="7" t="n"/>
+    </row>
+    <row r="31" ht="32.25" customHeight="1"/>
+    <row r="32"/>
+    <row r="33"/>
     <row r="34"/>
     <row r="35"/>
     <row r="36"/>
@@ -2426,12 +2357,10 @@
     <row r="57"/>
     <row r="58"/>
     <row r="59"/>
-    <row r="60"/>
+    <row r="60">
+      <c r="D60" s="1" t="n"/>
+    </row>
     <row r="61" ht="32.25" customHeight="1"/>
-    <row r="62"/>
-    <row r="63">
-      <c r="D63" s="1" t="n"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C8:D8"/>
@@ -2451,7 +2380,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="139" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
@@ -2567,77 +2496,35 @@
     </row>
     <row r="10" ht="32.25" customHeight="1">
       <c r="B10" s="2" t="inlineStr"/>
-      <c r="C10" s="41" t="inlineStr">
-        <is>
-          <t>S000000007</t>
-        </is>
-      </c>
-      <c r="D10" s="41" t="inlineStr">
-        <is>
-          <t>工程類實務捐贈</t>
-        </is>
-      </c>
-      <c r="E10" s="41" t="inlineStr">
-        <is>
-          <t>2025-05-02 23:50:02</t>
-        </is>
-      </c>
+      <c r="C10" s="41" t="inlineStr"/>
+      <c r="D10" s="41" t="inlineStr"/>
+      <c r="E10" s="41" t="inlineStr"/>
       <c r="F10" s="17" t="inlineStr"/>
     </row>
     <row r="11" ht="32.25" customHeight="1">
-      <c r="B11" s="2" t="inlineStr"/>
-      <c r="C11" s="41" t="inlineStr">
-        <is>
-          <t>S000000008</t>
-        </is>
-      </c>
-      <c r="D11" s="41" t="inlineStr">
-        <is>
-          <t>新的 SOP 名稱</t>
-        </is>
-      </c>
-      <c r="E11" s="41" t="inlineStr">
-        <is>
-          <t>2025-05-03 10:12:53</t>
-        </is>
-      </c>
-      <c r="F11" s="17" t="inlineStr"/>
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="2" t="n"/>
+      <c r="C11" s="43" t="n"/>
+      <c r="D11" s="42" t="n"/>
+      <c r="E11" s="44" t="n"/>
+      <c r="F11" s="4" t="n"/>
+      <c r="G11" s="1" t="n"/>
     </row>
     <row r="12" ht="32.25" customHeight="1">
-      <c r="B12" s="2" t="inlineStr"/>
-      <c r="C12" s="41" t="inlineStr">
-        <is>
-          <t>S000000011</t>
-        </is>
-      </c>
-      <c r="D12" s="41" t="inlineStr">
-        <is>
-          <t>test002</t>
-        </is>
-      </c>
-      <c r="E12" s="41" t="inlineStr">
-        <is>
-          <t>2025-05-18 21:58:11</t>
-        </is>
-      </c>
-      <c r="F12" s="17" t="inlineStr"/>
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="5" t="n"/>
+      <c r="C12" s="6" t="n"/>
+      <c r="D12" s="6" t="n"/>
+      <c r="E12" s="6" t="n"/>
+      <c r="F12" s="7" t="n"/>
+      <c r="G12" s="1" t="n"/>
     </row>
     <row r="13" ht="32.25" customHeight="1">
       <c r="A13" s="1" t="n"/>
-      <c r="B13" s="2" t="n"/>
-      <c r="C13" s="43" t="n"/>
-      <c r="D13" s="42" t="n"/>
-      <c r="E13" s="44" t="n"/>
-      <c r="F13" s="4" t="n"/>
       <c r="G13" s="1" t="n"/>
     </row>
     <row r="14" ht="32.25" customHeight="1">
       <c r="A14" s="1" t="n"/>
-      <c r="B14" s="5" t="n"/>
-      <c r="C14" s="6" t="n"/>
-      <c r="D14" s="6" t="n"/>
-      <c r="E14" s="6" t="n"/>
-      <c r="F14" s="7" t="n"/>
       <c r="G14" s="1" t="n"/>
     </row>
     <row r="15" ht="37.5" customHeight="1">
@@ -2708,14 +2595,7 @@
       <c r="A31" s="1" t="n"/>
       <c r="G31" s="1" t="n"/>
     </row>
-    <row r="32" ht="32.25" customHeight="1">
-      <c r="A32" s="1" t="n"/>
-      <c r="G32" s="1" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n"/>
-      <c r="G33" s="1" t="n"/>
-    </row>
+    <row r="32" ht="32.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
@@ -2732,7 +2612,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
@@ -2876,27 +2756,27 @@
       <c r="B10" s="2" t="inlineStr"/>
       <c r="C10" s="42" t="inlineStr">
         <is>
-          <t>S000000008</t>
+          <t>S000000001</t>
         </is>
       </c>
       <c r="D10" s="42" t="inlineStr">
         <is>
-          <t>新的 SOP 名稱</t>
+          <t>流程更新測試</t>
         </is>
       </c>
       <c r="E10" s="42" t="inlineStr">
         <is>
-          <t>Updated SOP fields by 302912</t>
+          <t>Updated SOP fields by 102166</t>
         </is>
       </c>
       <c r="F10" s="42" t="inlineStr">
         <is>
-          <t>2025-05-03 10:27:39</t>
+          <t>2025-05-14 07:03:56</t>
         </is>
       </c>
       <c r="G10" s="42" t="inlineStr">
         <is>
-          <t>葉O榮</t>
+          <t>王O忠</t>
         </is>
       </c>
       <c r="H10" s="17" t="inlineStr"/>
@@ -2905,283 +2785,83 @@
       <c r="B11" s="2" t="inlineStr"/>
       <c r="C11" s="42" t="inlineStr">
         <is>
-          <t>S000000007</t>
+          <t>S000000001</t>
         </is>
       </c>
       <c r="D11" s="42" t="inlineStr">
         <is>
-          <t>工程類實務捐贈</t>
+          <t>流程更新測試</t>
         </is>
       </c>
       <c r="E11" s="42" t="inlineStr">
         <is>
-          <t>Updated SOP fields by 302912</t>
+          <t xml:space="preserve">Updated </t>
         </is>
       </c>
       <c r="F11" s="42" t="inlineStr">
         <is>
-          <t>2025-05-16 00:25:23</t>
+          <t>2025-05-20 10:14:25</t>
         </is>
       </c>
       <c r="G11" s="42" t="inlineStr">
         <is>
-          <t>葉O榮</t>
+          <t>羅O蕙</t>
         </is>
       </c>
       <c r="H11" s="17" t="inlineStr"/>
     </row>
     <row r="12" ht="32.25" customHeight="1">
-      <c r="B12" s="2" t="inlineStr"/>
-      <c r="C12" s="42" t="inlineStr">
-        <is>
-          <t>S000000007</t>
-        </is>
-      </c>
-      <c r="D12" s="42" t="inlineStr">
-        <is>
-          <t>工程類實務捐贈</t>
-        </is>
-      </c>
-      <c r="E12" s="42" t="inlineStr">
-        <is>
-          <t>Updated SOP fields by 302912</t>
-        </is>
-      </c>
-      <c r="F12" s="42" t="inlineStr">
-        <is>
-          <t>2025-05-16 00:25:46</t>
-        </is>
-      </c>
-      <c r="G12" s="42" t="inlineStr">
-        <is>
-          <t>葉O榮</t>
-        </is>
-      </c>
-      <c r="H12" s="17" t="inlineStr"/>
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="2" t="n"/>
+      <c r="C12" s="41" t="n"/>
+      <c r="D12" s="42" t="n"/>
+      <c r="E12" s="42" t="n"/>
+      <c r="F12" s="44" t="n"/>
+      <c r="G12" s="42" t="n"/>
+      <c r="H12" s="4" t="n"/>
+      <c r="I12" s="1" t="n"/>
     </row>
     <row r="13" ht="32.25" customHeight="1">
-      <c r="B13" s="2" t="inlineStr"/>
-      <c r="C13" s="42" t="inlineStr">
-        <is>
-          <t>S000000007</t>
-        </is>
-      </c>
-      <c r="D13" s="42" t="inlineStr">
-        <is>
-          <t>工程類實務捐贈</t>
-        </is>
-      </c>
-      <c r="E13" s="42" t="inlineStr">
-        <is>
-          <t>Updated SOP fields by 302912</t>
-        </is>
-      </c>
-      <c r="F13" s="42" t="inlineStr">
-        <is>
-          <t>2025-05-16 00:31:24</t>
-        </is>
-      </c>
-      <c r="G13" s="42" t="inlineStr">
-        <is>
-          <t>葉O榮</t>
-        </is>
-      </c>
-      <c r="H13" s="17" t="inlineStr"/>
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="5" t="n"/>
+      <c r="C13" s="6" t="n"/>
+      <c r="D13" s="6" t="n"/>
+      <c r="E13" s="6" t="n"/>
+      <c r="F13" s="6" t="n"/>
+      <c r="G13" s="6" t="n"/>
+      <c r="H13" s="7" t="n"/>
+      <c r="I13" s="1" t="n"/>
     </row>
     <row r="14" ht="32.25" customHeight="1">
-      <c r="B14" s="2" t="inlineStr"/>
-      <c r="C14" s="42" t="inlineStr">
-        <is>
-          <t>S000000007</t>
-        </is>
-      </c>
-      <c r="D14" s="42" t="inlineStr">
-        <is>
-          <t>工程類實務捐贈</t>
-        </is>
-      </c>
-      <c r="E14" s="42" t="inlineStr">
-        <is>
-          <t>Updated SOP fields by 302912</t>
-        </is>
-      </c>
-      <c r="F14" s="42" t="inlineStr">
-        <is>
-          <t>2025-05-16 00:37:30</t>
-        </is>
-      </c>
-      <c r="G14" s="42" t="inlineStr">
-        <is>
-          <t>葉O榮</t>
-        </is>
-      </c>
-      <c r="H14" s="17" t="inlineStr"/>
+      <c r="A14" s="1" t="n"/>
+      <c r="I14" s="1" t="n"/>
     </row>
     <row r="15" ht="37.5" customHeight="1">
-      <c r="B15" s="2" t="inlineStr"/>
-      <c r="C15" s="42" t="inlineStr">
-        <is>
-          <t>S000000007</t>
-        </is>
-      </c>
-      <c r="D15" s="42" t="inlineStr">
-        <is>
-          <t>工程類實務捐贈</t>
-        </is>
-      </c>
-      <c r="E15" s="42" t="inlineStr">
-        <is>
-          <t>Updated SOP fields by 302912</t>
-        </is>
-      </c>
-      <c r="F15" s="42" t="inlineStr">
-        <is>
-          <t>2025-05-16 00:42:17</t>
-        </is>
-      </c>
-      <c r="G15" s="42" t="inlineStr">
-        <is>
-          <t>葉O榮</t>
-        </is>
-      </c>
-      <c r="H15" s="17" t="inlineStr"/>
+      <c r="A15" s="1" t="n"/>
+      <c r="I15" s="1" t="n"/>
     </row>
     <row r="16" ht="32.25" customHeight="1">
-      <c r="B16" s="2" t="inlineStr"/>
-      <c r="C16" s="42" t="inlineStr">
-        <is>
-          <t>S000000011</t>
-        </is>
-      </c>
-      <c r="D16" s="42" t="inlineStr">
-        <is>
-          <t>test002</t>
-        </is>
-      </c>
-      <c r="E16" s="42" t="inlineStr">
-        <is>
-          <t>Recover to V1</t>
-        </is>
-      </c>
-      <c r="F16" s="42" t="inlineStr">
-        <is>
-          <t>2025-05-20 01:20:50</t>
-        </is>
-      </c>
-      <c r="G16" s="42" t="inlineStr">
-        <is>
-          <t>張O珍</t>
-        </is>
-      </c>
-      <c r="H16" s="17" t="inlineStr"/>
+      <c r="A16" s="1" t="n"/>
+      <c r="I16" s="1" t="n"/>
     </row>
     <row r="17" ht="32.25" customHeight="1">
-      <c r="B17" s="2" t="inlineStr"/>
-      <c r="C17" s="42" t="inlineStr">
-        <is>
-          <t>S000000011</t>
-        </is>
-      </c>
-      <c r="D17" s="42" t="inlineStr">
-        <is>
-          <t>test002</t>
-        </is>
-      </c>
-      <c r="E17" s="42" t="inlineStr">
-        <is>
-          <t>Recover to V6</t>
-        </is>
-      </c>
-      <c r="F17" s="42" t="inlineStr">
-        <is>
-          <t>2025-05-20 01:23:26</t>
-        </is>
-      </c>
-      <c r="G17" s="42" t="inlineStr">
-        <is>
-          <t>張O珍</t>
-        </is>
-      </c>
-      <c r="H17" s="17" t="inlineStr"/>
+      <c r="A17" s="1" t="n"/>
+      <c r="I17" s="1" t="n"/>
     </row>
     <row r="18" ht="32.25" customHeight="1">
-      <c r="B18" s="2" t="inlineStr"/>
-      <c r="C18" s="42" t="inlineStr">
-        <is>
-          <t>S000000011</t>
-        </is>
-      </c>
-      <c r="D18" s="42" t="inlineStr">
-        <is>
-          <t>test002</t>
-        </is>
-      </c>
-      <c r="E18" s="42" t="inlineStr">
-        <is>
-          <t>Recover to V5</t>
-        </is>
-      </c>
-      <c r="F18" s="42" t="inlineStr">
-        <is>
-          <t>2025-05-20 01:25:16</t>
-        </is>
-      </c>
-      <c r="G18" s="42" t="inlineStr">
-        <is>
-          <t>張O珍</t>
-        </is>
-      </c>
-      <c r="H18" s="17" t="inlineStr"/>
+      <c r="A18" s="1" t="n"/>
+      <c r="I18" s="1" t="n"/>
     </row>
     <row r="19" ht="32.25" customHeight="1">
-      <c r="B19" s="2" t="inlineStr"/>
-      <c r="C19" s="42" t="inlineStr">
-        <is>
-          <t>S000000011</t>
-        </is>
-      </c>
-      <c r="D19" s="42" t="inlineStr">
-        <is>
-          <t>test002</t>
-        </is>
-      </c>
-      <c r="E19" s="42" t="inlineStr">
-        <is>
-          <t>Recover to V5</t>
-        </is>
-      </c>
-      <c r="F19" s="42" t="inlineStr">
-        <is>
-          <t>2025-05-20 01:25:41</t>
-        </is>
-      </c>
-      <c r="G19" s="42" t="inlineStr">
-        <is>
-          <t>張O珍</t>
-        </is>
-      </c>
-      <c r="H19" s="17" t="inlineStr"/>
+      <c r="A19" s="1" t="n"/>
+      <c r="I19" s="1" t="n"/>
     </row>
     <row r="20" ht="32.25" customHeight="1">
       <c r="A20" s="1" t="n"/>
-      <c r="B20" s="2" t="n"/>
-      <c r="C20" s="41" t="n"/>
-      <c r="D20" s="42" t="n"/>
-      <c r="E20" s="42" t="n"/>
-      <c r="F20" s="44" t="n"/>
-      <c r="G20" s="42" t="n"/>
-      <c r="H20" s="4" t="n"/>
       <c r="I20" s="1" t="n"/>
     </row>
     <row r="21" ht="32.25" customHeight="1">
       <c r="A21" s="1" t="n"/>
-      <c r="B21" s="5" t="n"/>
-      <c r="C21" s="6" t="n"/>
-      <c r="D21" s="6" t="n"/>
-      <c r="E21" s="6" t="n"/>
-      <c r="F21" s="6" t="n"/>
-      <c r="G21" s="6" t="n"/>
-      <c r="H21" s="7" t="n"/>
       <c r="I21" s="1" t="n"/>
     </row>
     <row r="22" ht="32.25" customHeight="1">
@@ -3234,86 +2914,54 @@
     </row>
     <row r="34" ht="32.25" customHeight="1">
       <c r="A34" s="1" t="n"/>
+      <c r="B34" s="29" t="n"/>
+      <c r="C34" s="30" t="n"/>
+      <c r="D34" s="30" t="n"/>
+      <c r="E34" s="30" t="n"/>
+      <c r="F34" s="30" t="n"/>
+      <c r="G34" s="30" t="n"/>
+      <c r="H34" s="29" t="n"/>
       <c r="I34" s="1" t="n"/>
     </row>
     <row r="35" ht="32.25" customHeight="1">
-      <c r="A35" s="1" t="n"/>
+      <c r="A35" s="21" t="n"/>
+      <c r="B35" s="29" t="n"/>
+      <c r="C35" s="30" t="n"/>
+      <c r="D35" s="30" t="n"/>
+      <c r="E35" s="30" t="n"/>
+      <c r="F35" s="30" t="n"/>
+      <c r="G35" s="30" t="n"/>
+      <c r="H35" s="29" t="n"/>
       <c r="I35" s="1" t="n"/>
     </row>
     <row r="36" ht="32.25" customHeight="1">
       <c r="A36" s="1" t="n"/>
+      <c r="B36" s="29" t="n"/>
+      <c r="C36" s="30" t="n"/>
+      <c r="D36" s="30" t="n"/>
+      <c r="E36" s="30" t="n"/>
+      <c r="F36" s="30" t="n"/>
+      <c r="G36" s="30" t="n"/>
+      <c r="H36" s="29" t="n"/>
       <c r="I36" s="1" t="n"/>
     </row>
     <row r="37" ht="32.25" customHeight="1">
-      <c r="A37" s="1" t="n"/>
-      <c r="I37" s="1" t="n"/>
+      <c r="B37" s="29" t="n"/>
+      <c r="C37" s="30" t="n"/>
+      <c r="D37" s="30" t="n"/>
+      <c r="E37" s="30" t="n"/>
+      <c r="F37" s="30" t="n"/>
+      <c r="G37" s="30" t="n"/>
+      <c r="H37" s="29" t="n"/>
     </row>
     <row r="38" ht="32.25" customHeight="1">
-      <c r="A38" s="1" t="n"/>
-      <c r="I38" s="1" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n"/>
-      <c r="I39" s="1" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n"/>
-      <c r="I40" s="1" t="n"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n"/>
-      <c r="I41" s="1" t="n"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n"/>
-      <c r="B42" s="29" t="n"/>
-      <c r="C42" s="30" t="n"/>
-      <c r="D42" s="30" t="n"/>
-      <c r="E42" s="30" t="n"/>
-      <c r="F42" s="30" t="n"/>
-      <c r="G42" s="30" t="n"/>
-      <c r="H42" s="29" t="n"/>
-      <c r="I42" s="1" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="21" t="n"/>
-      <c r="B43" s="29" t="n"/>
-      <c r="C43" s="30" t="n"/>
-      <c r="D43" s="30" t="n"/>
-      <c r="E43" s="30" t="n"/>
-      <c r="F43" s="30" t="n"/>
-      <c r="G43" s="30" t="n"/>
-      <c r="H43" s="29" t="n"/>
-      <c r="I43" s="1" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n"/>
-      <c r="B44" s="29" t="n"/>
-      <c r="C44" s="30" t="n"/>
-      <c r="D44" s="30" t="n"/>
-      <c r="E44" s="30" t="n"/>
-      <c r="F44" s="30" t="n"/>
-      <c r="G44" s="30" t="n"/>
-      <c r="H44" s="29" t="n"/>
-      <c r="I44" s="1" t="n"/>
-    </row>
-    <row r="45">
-      <c r="B45" s="29" t="n"/>
-      <c r="C45" s="30" t="n"/>
-      <c r="D45" s="30" t="n"/>
-      <c r="E45" s="30" t="n"/>
-      <c r="F45" s="30" t="n"/>
-      <c r="G45" s="30" t="n"/>
-      <c r="H45" s="29" t="n"/>
-    </row>
-    <row r="46">
-      <c r="B46" s="29" t="n"/>
-      <c r="C46" s="30" t="n"/>
-      <c r="D46" s="30" t="n"/>
-      <c r="E46" s="30" t="n"/>
-      <c r="F46" s="30" t="n"/>
-      <c r="G46" s="30" t="n"/>
-      <c r="H46" s="29" t="n"/>
+      <c r="B38" s="29" t="n"/>
+      <c r="C38" s="30" t="n"/>
+      <c r="D38" s="30" t="n"/>
+      <c r="E38" s="30" t="n"/>
+      <c r="F38" s="30" t="n"/>
+      <c r="G38" s="30" t="n"/>
+      <c r="H38" s="29" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/scripts/output.xlsx
+++ b/scripts/output.xlsx
@@ -937,7 +937,7 @@
           <invertIfNegative val="0"/>
           <cat>
             <strRef>
-              <f>'Social Interaction'!$C$16:$C$16</f>
+              <f>'Social Interaction'!$C$16:$C$18</f>
               <strCache>
                 <ptCount val="2"/>
                 <pt idx="0">
@@ -951,7 +951,7 @@
           </cat>
           <val>
             <numRef>
-              <f>'Social Interaction'!$E$16:$E$16</f>
+              <f>'Social Interaction'!$E$16:$E$18</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="2"/>
@@ -1227,7 +1227,7 @@
           <invertIfNegative val="0"/>
           <cat>
             <strRef>
-              <f>'Social Interaction'!$C$16:$C$16</f>
+              <f>'Social Interaction'!$C$16:$C$18</f>
               <strCache>
                 <ptCount val="2"/>
                 <pt idx="0">
@@ -1241,7 +1241,7 @@
           </cat>
           <val>
             <numRef>
-              <f>'Social Interaction'!$F$16:$F$16</f>
+              <f>'Social Interaction'!$F$16:$F$18</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="2"/>
@@ -1595,7 +1595,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table3" displayName="Table3" ref="C15:F16" headerRowCount="1" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table3" displayName="Table3" ref="C15:F18" headerRowCount="1" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16">
   <autoFilter ref="C15:F17"/>
   <tableColumns count="4">
     <tableColumn id="1" name="SOP ID" dataDxfId="15"/>
@@ -1608,7 +1608,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1" displayName="Table1" ref="C9:E10" headerRowCount="1" totalsRowShown="0" headerRowDxfId="11" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1" displayName="Table1" ref="C9:E11" headerRowCount="1" totalsRowShown="0" headerRowDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="C9:E11"/>
   <tableColumns count="3">
     <tableColumn id="1" name="SOP ID" dataDxfId="9"/>
@@ -1620,7 +1620,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table2" displayName="Table2" ref="C9:G11" headerRowCount="1" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table2" displayName="Table2" ref="C9:G33" headerRowCount="1" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="C9:G11"/>
   <tableColumns count="5">
     <tableColumn id="1" name="SOP ID" dataDxfId="4"/>
@@ -1835,7 +1835,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L60"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="D9" s="28" t="inlineStr">
         <is>
-          <t>教務處註冊組</t>
+          <t>學生事務處生活事務暨僑生輔導組</t>
         </is>
       </c>
       <c r="E9" s="31" t="n"/>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="D10" s="47" t="inlineStr">
         <is>
-          <t>王O忠</t>
+          <t>盧O婷</t>
         </is>
       </c>
       <c r="E10" s="34" t="n"/>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="D11" s="25" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="E11" s="3" t="n"/>
@@ -2134,19 +2134,19 @@
       <c r="B16" s="2" t="inlineStr"/>
       <c r="C16" s="40" t="inlineStr">
         <is>
-          <t>S000000001</t>
+          <t>S000000002</t>
         </is>
       </c>
       <c r="D16" s="40" t="inlineStr">
         <is>
-          <t>流程更新測試</t>
+          <t>新聘專任教研人員作業流程</t>
         </is>
       </c>
       <c r="E16" s="40" t="n">
-        <v>105</v>
+        <v>340</v>
       </c>
       <c r="F16" s="40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="40" t="inlineStr"/>
       <c r="H16" s="40" t="inlineStr"/>
@@ -2155,70 +2155,94 @@
       <c r="K16" s="4" t="inlineStr"/>
     </row>
     <row r="17" ht="32.25" customHeight="1">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="2" t="n"/>
-      <c r="C17" s="40" t="n"/>
-      <c r="D17" s="40" t="n"/>
-      <c r="E17" s="40" t="n"/>
-      <c r="F17" s="40" t="n"/>
-      <c r="G17" s="3" t="n"/>
-      <c r="H17" s="3" t="n"/>
-      <c r="I17" s="3" t="n"/>
-      <c r="J17" s="3" t="n"/>
-      <c r="K17" s="4" t="n"/>
-      <c r="L17" s="1" t="n"/>
+      <c r="B17" s="2" t="inlineStr"/>
+      <c r="C17" s="40" t="inlineStr">
+        <is>
+          <t>S000000011</t>
+        </is>
+      </c>
+      <c r="D17" s="40" t="inlineStr">
+        <is>
+          <t>校內獎助學金申請流程</t>
+        </is>
+      </c>
+      <c r="E17" s="40" t="n">
+        <v>65</v>
+      </c>
+      <c r="F17" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="40" t="inlineStr"/>
+      <c r="H17" s="40" t="inlineStr"/>
+      <c r="I17" s="40" t="inlineStr"/>
+      <c r="J17" s="40" t="inlineStr"/>
+      <c r="K17" s="4" t="inlineStr"/>
     </row>
     <row r="18" ht="32.25" customHeight="1">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="2" t="n"/>
-      <c r="C18" s="39" t="n"/>
-      <c r="D18" s="40" t="n"/>
-      <c r="E18" s="40" t="n"/>
-      <c r="F18" s="40" t="n"/>
-      <c r="G18" s="3" t="n"/>
-      <c r="H18" s="3" t="n"/>
-      <c r="I18" s="3" t="n"/>
-      <c r="J18" s="3" t="n"/>
-      <c r="K18" s="4" t="n"/>
-      <c r="L18" s="1" t="n"/>
+      <c r="B18" s="2" t="inlineStr"/>
+      <c r="C18" s="40" t="inlineStr">
+        <is>
+          <t>S000000013</t>
+        </is>
+      </c>
+      <c r="D18" s="40" t="inlineStr">
+        <is>
+          <t>學生獎懲建議</t>
+        </is>
+      </c>
+      <c r="E18" s="40" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="40" t="inlineStr"/>
+      <c r="H18" s="40" t="inlineStr"/>
+      <c r="I18" s="40" t="inlineStr"/>
+      <c r="J18" s="40" t="inlineStr"/>
+      <c r="K18" s="4" t="inlineStr"/>
     </row>
     <row r="19" ht="32.25" customHeight="1">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="2" t="n"/>
-      <c r="C19" s="39" t="n"/>
+      <c r="C19" s="40" t="n"/>
       <c r="D19" s="40" t="n"/>
       <c r="E19" s="40" t="n"/>
       <c r="F19" s="40" t="n"/>
-      <c r="G19" s="26" t="n"/>
-      <c r="H19" s="26" t="n"/>
-      <c r="I19" s="26" t="n"/>
-      <c r="J19" s="26" t="n"/>
+      <c r="G19" s="3" t="n"/>
+      <c r="H19" s="3" t="n"/>
+      <c r="I19" s="3" t="n"/>
+      <c r="J19" s="3" t="n"/>
       <c r="K19" s="4" t="n"/>
       <c r="L19" s="1" t="n"/>
     </row>
     <row r="20" ht="37.5" customHeight="1">
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="2" t="n"/>
       <c r="C20" s="39" t="n"/>
       <c r="D20" s="40" t="n"/>
       <c r="E20" s="40" t="n"/>
       <c r="F20" s="40" t="n"/>
-      <c r="G20" s="20" t="n"/>
-      <c r="H20" s="20" t="n"/>
-      <c r="I20" s="20" t="n"/>
-      <c r="J20" s="20" t="n"/>
+      <c r="G20" s="3" t="n"/>
+      <c r="H20" s="3" t="n"/>
+      <c r="I20" s="3" t="n"/>
+      <c r="J20" s="3" t="n"/>
       <c r="K20" s="4" t="n"/>
+      <c r="L20" s="1" t="n"/>
     </row>
     <row r="21" ht="32.25" customHeight="1">
+      <c r="A21" s="1" t="n"/>
       <c r="B21" s="2" t="n"/>
       <c r="C21" s="39" t="n"/>
       <c r="D21" s="40" t="n"/>
       <c r="E21" s="40" t="n"/>
       <c r="F21" s="40" t="n"/>
-      <c r="G21" s="20" t="n"/>
-      <c r="H21" s="20" t="n"/>
-      <c r="I21" s="20" t="n"/>
-      <c r="J21" s="20" t="n"/>
+      <c r="G21" s="26" t="n"/>
+      <c r="H21" s="26" t="n"/>
+      <c r="I21" s="26" t="n"/>
+      <c r="J21" s="26" t="n"/>
       <c r="K21" s="4" t="n"/>
+      <c r="L21" s="1" t="n"/>
     </row>
     <row r="22" ht="32.25" customHeight="1">
       <c r="B22" s="2" t="n"/>
@@ -2317,19 +2341,41 @@
       <c r="K29" s="4" t="n"/>
     </row>
     <row r="30" ht="32.25" customHeight="1">
-      <c r="B30" s="5" t="n"/>
-      <c r="C30" s="6" t="n"/>
-      <c r="D30" s="6" t="n"/>
-      <c r="E30" s="6" t="n"/>
-      <c r="F30" s="6" t="n"/>
-      <c r="G30" s="6" t="n"/>
-      <c r="H30" s="6" t="n"/>
-      <c r="I30" s="6" t="n"/>
-      <c r="J30" s="6" t="n"/>
-      <c r="K30" s="7" t="n"/>
-    </row>
-    <row r="31" ht="32.25" customHeight="1"/>
-    <row r="32"/>
+      <c r="B30" s="2" t="n"/>
+      <c r="C30" s="39" t="n"/>
+      <c r="D30" s="40" t="n"/>
+      <c r="E30" s="40" t="n"/>
+      <c r="F30" s="40" t="n"/>
+      <c r="G30" s="20" t="n"/>
+      <c r="H30" s="20" t="n"/>
+      <c r="I30" s="20" t="n"/>
+      <c r="J30" s="20" t="n"/>
+      <c r="K30" s="4" t="n"/>
+    </row>
+    <row r="31" ht="32.25" customHeight="1">
+      <c r="B31" s="2" t="n"/>
+      <c r="C31" s="39" t="n"/>
+      <c r="D31" s="40" t="n"/>
+      <c r="E31" s="40" t="n"/>
+      <c r="F31" s="40" t="n"/>
+      <c r="G31" s="20" t="n"/>
+      <c r="H31" s="20" t="n"/>
+      <c r="I31" s="20" t="n"/>
+      <c r="J31" s="20" t="n"/>
+      <c r="K31" s="4" t="n"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="5" t="n"/>
+      <c r="C32" s="6" t="n"/>
+      <c r="D32" s="6" t="n"/>
+      <c r="E32" s="6" t="n"/>
+      <c r="F32" s="6" t="n"/>
+      <c r="G32" s="6" t="n"/>
+      <c r="H32" s="6" t="n"/>
+      <c r="I32" s="6" t="n"/>
+      <c r="J32" s="6" t="n"/>
+      <c r="K32" s="7" t="n"/>
+    </row>
     <row r="33"/>
     <row r="34"/>
     <row r="35"/>
@@ -2357,10 +2403,11 @@
     <row r="57"/>
     <row r="58"/>
     <row r="59"/>
-    <row r="60">
-      <c r="D60" s="1" t="n"/>
-    </row>
+    <row r="60"/>
     <row r="61" ht="32.25" customHeight="1"/>
+    <row r="62">
+      <c r="D62" s="1" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C8:D8"/>
@@ -2380,7 +2427,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="139" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
@@ -2496,31 +2543,58 @@
     </row>
     <row r="10" ht="32.25" customHeight="1">
       <c r="B10" s="2" t="inlineStr"/>
-      <c r="C10" s="41" t="inlineStr"/>
-      <c r="D10" s="41" t="inlineStr"/>
-      <c r="E10" s="41" t="inlineStr"/>
+      <c r="C10" s="41" t="inlineStr">
+        <is>
+          <t>S000000011</t>
+        </is>
+      </c>
+      <c r="D10" s="41" t="inlineStr">
+        <is>
+          <t>校內獎助學金申請流程</t>
+        </is>
+      </c>
+      <c r="E10" s="41" t="inlineStr">
+        <is>
+          <t>2025-05-25 08:21:41</t>
+        </is>
+      </c>
       <c r="F10" s="17" t="inlineStr"/>
     </row>
     <row r="11" ht="32.25" customHeight="1">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="2" t="n"/>
-      <c r="C11" s="43" t="n"/>
-      <c r="D11" s="42" t="n"/>
-      <c r="E11" s="44" t="n"/>
-      <c r="F11" s="4" t="n"/>
-      <c r="G11" s="1" t="n"/>
+      <c r="B11" s="2" t="inlineStr"/>
+      <c r="C11" s="41" t="inlineStr">
+        <is>
+          <t>S000000013</t>
+        </is>
+      </c>
+      <c r="D11" s="41" t="inlineStr">
+        <is>
+          <t>學生獎懲建議</t>
+        </is>
+      </c>
+      <c r="E11" s="41" t="inlineStr">
+        <is>
+          <t>2025-05-25 08:41:16</t>
+        </is>
+      </c>
+      <c r="F11" s="17" t="inlineStr"/>
     </row>
     <row r="12" ht="32.25" customHeight="1">
       <c r="A12" s="1" t="n"/>
-      <c r="B12" s="5" t="n"/>
-      <c r="C12" s="6" t="n"/>
-      <c r="D12" s="6" t="n"/>
-      <c r="E12" s="6" t="n"/>
-      <c r="F12" s="7" t="n"/>
+      <c r="B12" s="2" t="n"/>
+      <c r="C12" s="43" t="n"/>
+      <c r="D12" s="42" t="n"/>
+      <c r="E12" s="44" t="n"/>
+      <c r="F12" s="4" t="n"/>
       <c r="G12" s="1" t="n"/>
     </row>
     <row r="13" ht="32.25" customHeight="1">
       <c r="A13" s="1" t="n"/>
+      <c r="B13" s="5" t="n"/>
+      <c r="C13" s="6" t="n"/>
+      <c r="D13" s="6" t="n"/>
+      <c r="E13" s="6" t="n"/>
+      <c r="F13" s="7" t="n"/>
       <c r="G13" s="1" t="n"/>
     </row>
     <row r="14" ht="32.25" customHeight="1">
@@ -2595,7 +2669,10 @@
       <c r="A31" s="1" t="n"/>
       <c r="G31" s="1" t="n"/>
     </row>
-    <row r="32" ht="32.25" customHeight="1"/>
+    <row r="32" ht="32.25" customHeight="1">
+      <c r="A32" s="1" t="n"/>
+      <c r="G32" s="1" t="n"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
@@ -2612,7 +2689,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
@@ -2756,27 +2833,27 @@
       <c r="B10" s="2" t="inlineStr"/>
       <c r="C10" s="42" t="inlineStr">
         <is>
-          <t>S000000001</t>
+          <t>S000000002</t>
         </is>
       </c>
       <c r="D10" s="42" t="inlineStr">
         <is>
-          <t>流程更新測試</t>
+          <t>新聘專任教研人員作業流程</t>
         </is>
       </c>
       <c r="E10" s="42" t="inlineStr">
         <is>
-          <t>Updated SOP fields by 102166</t>
+          <t>Update SOP Info</t>
         </is>
       </c>
       <c r="F10" s="42" t="inlineStr">
         <is>
-          <t>2025-05-14 07:03:56</t>
+          <t>2025-05-25 04:27:56</t>
         </is>
       </c>
       <c r="G10" s="42" t="inlineStr">
         <is>
-          <t>王O忠</t>
+          <t>傅O平</t>
         </is>
       </c>
       <c r="H10" s="17" t="inlineStr"/>
@@ -2785,183 +2862,821 @@
       <c r="B11" s="2" t="inlineStr"/>
       <c r="C11" s="42" t="inlineStr">
         <is>
-          <t>S000000001</t>
+          <t>S000000002</t>
         </is>
       </c>
       <c r="D11" s="42" t="inlineStr">
         <is>
-          <t>流程更新測試</t>
+          <t>新聘專任教研人員作業流程</t>
         </is>
       </c>
       <c r="E11" s="42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Updated </t>
+          <t>Update SOP Info</t>
         </is>
       </c>
       <c r="F11" s="42" t="inlineStr">
         <is>
-          <t>2025-05-20 10:14:25</t>
+          <t>2025-05-25 05:20:25</t>
         </is>
       </c>
       <c r="G11" s="42" t="inlineStr">
         <is>
-          <t>羅O蕙</t>
+          <t>傅O平</t>
         </is>
       </c>
       <c r="H11" s="17" t="inlineStr"/>
     </row>
     <row r="12" ht="32.25" customHeight="1">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" s="2" t="n"/>
-      <c r="C12" s="41" t="n"/>
-      <c r="D12" s="42" t="n"/>
-      <c r="E12" s="42" t="n"/>
-      <c r="F12" s="44" t="n"/>
-      <c r="G12" s="42" t="n"/>
-      <c r="H12" s="4" t="n"/>
-      <c r="I12" s="1" t="n"/>
+      <c r="B12" s="2" t="inlineStr"/>
+      <c r="C12" s="42" t="inlineStr">
+        <is>
+          <t>S000000002</t>
+        </is>
+      </c>
+      <c r="D12" s="42" t="inlineStr">
+        <is>
+          <t>新聘專任教研人員作業流程</t>
+        </is>
+      </c>
+      <c r="E12" s="42" t="inlineStr">
+        <is>
+          <t>Update SOP Process</t>
+        </is>
+      </c>
+      <c r="F12" s="42" t="inlineStr">
+        <is>
+          <t>2025-05-25 07:26:22</t>
+        </is>
+      </c>
+      <c r="G12" s="42" t="inlineStr">
+        <is>
+          <t>葉O榮</t>
+        </is>
+      </c>
+      <c r="H12" s="17" t="inlineStr"/>
     </row>
     <row r="13" ht="32.25" customHeight="1">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="5" t="n"/>
-      <c r="C13" s="6" t="n"/>
-      <c r="D13" s="6" t="n"/>
-      <c r="E13" s="6" t="n"/>
-      <c r="F13" s="6" t="n"/>
-      <c r="G13" s="6" t="n"/>
-      <c r="H13" s="7" t="n"/>
-      <c r="I13" s="1" t="n"/>
+      <c r="B13" s="2" t="inlineStr"/>
+      <c r="C13" s="42" t="inlineStr">
+        <is>
+          <t>S000000002</t>
+        </is>
+      </c>
+      <c r="D13" s="42" t="inlineStr">
+        <is>
+          <t>新聘專任教研人員作業流程</t>
+        </is>
+      </c>
+      <c r="E13" s="42" t="inlineStr">
+        <is>
+          <t>Update SOP Info</t>
+        </is>
+      </c>
+      <c r="F13" s="42" t="inlineStr">
+        <is>
+          <t>2025-05-25 07:52:42</t>
+        </is>
+      </c>
+      <c r="G13" s="42" t="inlineStr">
+        <is>
+          <t>傅O平</t>
+        </is>
+      </c>
+      <c r="H13" s="17" t="inlineStr"/>
     </row>
     <row r="14" ht="32.25" customHeight="1">
-      <c r="A14" s="1" t="n"/>
-      <c r="I14" s="1" t="n"/>
+      <c r="B14" s="2" t="inlineStr"/>
+      <c r="C14" s="42" t="inlineStr">
+        <is>
+          <t>S000000002</t>
+        </is>
+      </c>
+      <c r="D14" s="42" t="inlineStr">
+        <is>
+          <t>新聘專任教研人員作業流程</t>
+        </is>
+      </c>
+      <c r="E14" s="42" t="inlineStr">
+        <is>
+          <t>Update SOP Process</t>
+        </is>
+      </c>
+      <c r="F14" s="42" t="inlineStr">
+        <is>
+          <t>2025-05-25 07:53:07</t>
+        </is>
+      </c>
+      <c r="G14" s="42" t="inlineStr">
+        <is>
+          <t>葉O榮</t>
+        </is>
+      </c>
+      <c r="H14" s="17" t="inlineStr"/>
     </row>
     <row r="15" ht="37.5" customHeight="1">
-      <c r="A15" s="1" t="n"/>
-      <c r="I15" s="1" t="n"/>
+      <c r="B15" s="2" t="inlineStr"/>
+      <c r="C15" s="42" t="inlineStr">
+        <is>
+          <t>S000000011</t>
+        </is>
+      </c>
+      <c r="D15" s="42" t="inlineStr">
+        <is>
+          <t>校內獎助學金申請流程</t>
+        </is>
+      </c>
+      <c r="E15" s="42" t="inlineStr">
+        <is>
+          <t>create</t>
+        </is>
+      </c>
+      <c r="F15" s="42" t="inlineStr">
+        <is>
+          <t>2025-05-25 08:21:42</t>
+        </is>
+      </c>
+      <c r="G15" s="42" t="inlineStr">
+        <is>
+          <t>傅O平</t>
+        </is>
+      </c>
+      <c r="H15" s="17" t="inlineStr"/>
     </row>
     <row r="16" ht="32.25" customHeight="1">
-      <c r="A16" s="1" t="n"/>
-      <c r="I16" s="1" t="n"/>
+      <c r="B16" s="2" t="inlineStr"/>
+      <c r="C16" s="42" t="inlineStr">
+        <is>
+          <t>S000000011</t>
+        </is>
+      </c>
+      <c r="D16" s="42" t="inlineStr">
+        <is>
+          <t>校內獎助學金申請流程</t>
+        </is>
+      </c>
+      <c r="E16" s="42" t="inlineStr">
+        <is>
+          <t>Update SOP Process</t>
+        </is>
+      </c>
+      <c r="F16" s="42" t="inlineStr">
+        <is>
+          <t>2025-05-25 08:30:59</t>
+        </is>
+      </c>
+      <c r="G16" s="42" t="inlineStr">
+        <is>
+          <t>葉O榮</t>
+        </is>
+      </c>
+      <c r="H16" s="17" t="inlineStr"/>
     </row>
     <row r="17" ht="32.25" customHeight="1">
-      <c r="A17" s="1" t="n"/>
-      <c r="I17" s="1" t="n"/>
+      <c r="B17" s="2" t="inlineStr"/>
+      <c r="C17" s="42" t="inlineStr">
+        <is>
+          <t>S000000011</t>
+        </is>
+      </c>
+      <c r="D17" s="42" t="inlineStr">
+        <is>
+          <t>校內獎助學金申請流程</t>
+        </is>
+      </c>
+      <c r="E17" s="42" t="inlineStr">
+        <is>
+          <t>Update SOP Info</t>
+        </is>
+      </c>
+      <c r="F17" s="42" t="inlineStr">
+        <is>
+          <t>2025-05-25 08:37:24</t>
+        </is>
+      </c>
+      <c r="G17" s="42" t="inlineStr">
+        <is>
+          <t>傅O平</t>
+        </is>
+      </c>
+      <c r="H17" s="17" t="inlineStr"/>
     </row>
     <row r="18" ht="32.25" customHeight="1">
-      <c r="A18" s="1" t="n"/>
-      <c r="I18" s="1" t="n"/>
+      <c r="B18" s="2" t="inlineStr"/>
+      <c r="C18" s="42" t="inlineStr">
+        <is>
+          <t>S000000011</t>
+        </is>
+      </c>
+      <c r="D18" s="42" t="inlineStr">
+        <is>
+          <t>校內獎助學金申請流程</t>
+        </is>
+      </c>
+      <c r="E18" s="42" t="inlineStr">
+        <is>
+          <t>Update SOP Process</t>
+        </is>
+      </c>
+      <c r="F18" s="42" t="inlineStr">
+        <is>
+          <t>2025-05-25 08:37:42</t>
+        </is>
+      </c>
+      <c r="G18" s="42" t="inlineStr">
+        <is>
+          <t>葉O榮</t>
+        </is>
+      </c>
+      <c r="H18" s="17" t="inlineStr"/>
     </row>
     <row r="19" ht="32.25" customHeight="1">
-      <c r="A19" s="1" t="n"/>
-      <c r="I19" s="1" t="n"/>
+      <c r="B19" s="2" t="inlineStr"/>
+      <c r="C19" s="42" t="inlineStr">
+        <is>
+          <t>S000000011</t>
+        </is>
+      </c>
+      <c r="D19" s="42" t="inlineStr">
+        <is>
+          <t>校內獎助學金申請流程</t>
+        </is>
+      </c>
+      <c r="E19" s="42" t="inlineStr">
+        <is>
+          <t>Update SOP Info</t>
+        </is>
+      </c>
+      <c r="F19" s="42" t="inlineStr">
+        <is>
+          <t>2025-05-25 08:50:36</t>
+        </is>
+      </c>
+      <c r="G19" s="42" t="inlineStr">
+        <is>
+          <t>傅O平</t>
+        </is>
+      </c>
+      <c r="H19" s="17" t="inlineStr"/>
     </row>
     <row r="20" ht="32.25" customHeight="1">
-      <c r="A20" s="1" t="n"/>
-      <c r="I20" s="1" t="n"/>
+      <c r="B20" s="2" t="inlineStr"/>
+      <c r="C20" s="42" t="inlineStr">
+        <is>
+          <t>S000000011</t>
+        </is>
+      </c>
+      <c r="D20" s="42" t="inlineStr">
+        <is>
+          <t>校內獎助學金申請流程</t>
+        </is>
+      </c>
+      <c r="E20" s="42" t="inlineStr">
+        <is>
+          <t>Update SOP Process</t>
+        </is>
+      </c>
+      <c r="F20" s="42" t="inlineStr">
+        <is>
+          <t>2025-05-25 08:52:03</t>
+        </is>
+      </c>
+      <c r="G20" s="42" t="inlineStr">
+        <is>
+          <t>葉O榮</t>
+        </is>
+      </c>
+      <c r="H20" s="17" t="inlineStr"/>
     </row>
     <row r="21" ht="32.25" customHeight="1">
-      <c r="A21" s="1" t="n"/>
-      <c r="I21" s="1" t="n"/>
+      <c r="B21" s="2" t="inlineStr"/>
+      <c r="C21" s="42" t="inlineStr">
+        <is>
+          <t>S000000011</t>
+        </is>
+      </c>
+      <c r="D21" s="42" t="inlineStr">
+        <is>
+          <t>校內獎助學金申請流程</t>
+        </is>
+      </c>
+      <c r="E21" s="42" t="inlineStr">
+        <is>
+          <t>Update SOP Info</t>
+        </is>
+      </c>
+      <c r="F21" s="42" t="inlineStr">
+        <is>
+          <t>2025-05-25 09:01:19</t>
+        </is>
+      </c>
+      <c r="G21" s="42" t="inlineStr">
+        <is>
+          <t>傅O平</t>
+        </is>
+      </c>
+      <c r="H21" s="17" t="inlineStr"/>
     </row>
     <row r="22" ht="32.25" customHeight="1">
-      <c r="A22" s="1" t="n"/>
-      <c r="I22" s="1" t="n"/>
+      <c r="B22" s="2" t="inlineStr"/>
+      <c r="C22" s="42" t="inlineStr">
+        <is>
+          <t>S000000011</t>
+        </is>
+      </c>
+      <c r="D22" s="42" t="inlineStr">
+        <is>
+          <t>校內獎助學金申請流程</t>
+        </is>
+      </c>
+      <c r="E22" s="42" t="inlineStr">
+        <is>
+          <t>Update SOP Process</t>
+        </is>
+      </c>
+      <c r="F22" s="42" t="inlineStr">
+        <is>
+          <t>2025-05-25 09:01:28</t>
+        </is>
+      </c>
+      <c r="G22" s="42" t="inlineStr">
+        <is>
+          <t>葉O榮</t>
+        </is>
+      </c>
+      <c r="H22" s="17" t="inlineStr"/>
     </row>
     <row r="23" ht="32.25" customHeight="1">
-      <c r="A23" s="1" t="n"/>
-      <c r="I23" s="1" t="n"/>
+      <c r="B23" s="2" t="inlineStr"/>
+      <c r="C23" s="42" t="inlineStr">
+        <is>
+          <t>S000000011</t>
+        </is>
+      </c>
+      <c r="D23" s="42" t="inlineStr">
+        <is>
+          <t>校內獎助學金申請流程</t>
+        </is>
+      </c>
+      <c r="E23" s="42" t="inlineStr">
+        <is>
+          <t>Update SOP Info</t>
+        </is>
+      </c>
+      <c r="F23" s="42" t="inlineStr">
+        <is>
+          <t>2025-05-25 09:11:46</t>
+        </is>
+      </c>
+      <c r="G23" s="42" t="inlineStr">
+        <is>
+          <t>黃O翰</t>
+        </is>
+      </c>
+      <c r="H23" s="17" t="inlineStr"/>
     </row>
     <row r="24" ht="32.25" customHeight="1">
-      <c r="A24" s="1" t="n"/>
-      <c r="I24" s="1" t="n"/>
+      <c r="B24" s="2" t="inlineStr"/>
+      <c r="C24" s="42" t="inlineStr">
+        <is>
+          <t>S000000011</t>
+        </is>
+      </c>
+      <c r="D24" s="42" t="inlineStr">
+        <is>
+          <t>校內獎助學金申請流程</t>
+        </is>
+      </c>
+      <c r="E24" s="42" t="inlineStr">
+        <is>
+          <t>Update SOP Info</t>
+        </is>
+      </c>
+      <c r="F24" s="42" t="inlineStr">
+        <is>
+          <t>2025-05-25 09:12:42</t>
+        </is>
+      </c>
+      <c r="G24" s="42" t="inlineStr">
+        <is>
+          <t>傅O平</t>
+        </is>
+      </c>
+      <c r="H24" s="17" t="inlineStr"/>
     </row>
     <row r="25" ht="32.25" customHeight="1">
-      <c r="A25" s="1" t="n"/>
-      <c r="I25" s="1" t="n"/>
+      <c r="B25" s="2" t="inlineStr"/>
+      <c r="C25" s="42" t="inlineStr">
+        <is>
+          <t>S000000011</t>
+        </is>
+      </c>
+      <c r="D25" s="42" t="inlineStr">
+        <is>
+          <t>校內獎助學金申請流程</t>
+        </is>
+      </c>
+      <c r="E25" s="42" t="inlineStr">
+        <is>
+          <t>Update SOP Process</t>
+        </is>
+      </c>
+      <c r="F25" s="42" t="inlineStr">
+        <is>
+          <t>2025-05-25 09:12:49</t>
+        </is>
+      </c>
+      <c r="G25" s="42" t="inlineStr">
+        <is>
+          <t>葉O榮</t>
+        </is>
+      </c>
+      <c r="H25" s="17" t="inlineStr"/>
     </row>
     <row r="26" ht="32.25" customHeight="1">
-      <c r="A26" s="1" t="n"/>
-      <c r="I26" s="1" t="n"/>
+      <c r="B26" s="2" t="inlineStr"/>
+      <c r="C26" s="42" t="inlineStr">
+        <is>
+          <t>S000000011</t>
+        </is>
+      </c>
+      <c r="D26" s="42" t="inlineStr">
+        <is>
+          <t>校內獎助學金申請流程</t>
+        </is>
+      </c>
+      <c r="E26" s="42" t="inlineStr">
+        <is>
+          <t>Update SOP Info</t>
+        </is>
+      </c>
+      <c r="F26" s="42" t="inlineStr">
+        <is>
+          <t>2025-05-25 09:20:10</t>
+        </is>
+      </c>
+      <c r="G26" s="42" t="inlineStr">
+        <is>
+          <t>黃O翰</t>
+        </is>
+      </c>
+      <c r="H26" s="17" t="inlineStr"/>
     </row>
     <row r="27" ht="32.25" customHeight="1">
-      <c r="A27" s="1" t="n"/>
-      <c r="I27" s="1" t="n"/>
+      <c r="B27" s="2" t="inlineStr"/>
+      <c r="C27" s="42" t="inlineStr">
+        <is>
+          <t>S000000011</t>
+        </is>
+      </c>
+      <c r="D27" s="42" t="inlineStr">
+        <is>
+          <t>校內獎助學金申請流程</t>
+        </is>
+      </c>
+      <c r="E27" s="42" t="inlineStr">
+        <is>
+          <t>Update SOP Process</t>
+        </is>
+      </c>
+      <c r="F27" s="42" t="inlineStr">
+        <is>
+          <t>2025-05-25 09:20:16</t>
+        </is>
+      </c>
+      <c r="G27" s="42" t="inlineStr">
+        <is>
+          <t>葉O榮</t>
+        </is>
+      </c>
+      <c r="H27" s="17" t="inlineStr"/>
     </row>
     <row r="28" ht="32.25" customHeight="1">
-      <c r="A28" s="1" t="n"/>
-      <c r="I28" s="1" t="n"/>
+      <c r="B28" s="2" t="inlineStr"/>
+      <c r="C28" s="42" t="inlineStr">
+        <is>
+          <t>S000000011</t>
+        </is>
+      </c>
+      <c r="D28" s="42" t="inlineStr">
+        <is>
+          <t>校內獎助學金申請流程</t>
+        </is>
+      </c>
+      <c r="E28" s="42" t="inlineStr">
+        <is>
+          <t>Update SOP Info</t>
+        </is>
+      </c>
+      <c r="F28" s="42" t="inlineStr">
+        <is>
+          <t>2025-05-25 09:23:00</t>
+        </is>
+      </c>
+      <c r="G28" s="42" t="inlineStr">
+        <is>
+          <t>陳O帆</t>
+        </is>
+      </c>
+      <c r="H28" s="17" t="inlineStr"/>
     </row>
     <row r="29" ht="32.25" customHeight="1">
-      <c r="A29" s="1" t="n"/>
-      <c r="I29" s="1" t="n"/>
+      <c r="B29" s="2" t="inlineStr"/>
+      <c r="C29" s="42" t="inlineStr">
+        <is>
+          <t>S000000011</t>
+        </is>
+      </c>
+      <c r="D29" s="42" t="inlineStr">
+        <is>
+          <t>校內獎助學金申請流程</t>
+        </is>
+      </c>
+      <c r="E29" s="42" t="inlineStr">
+        <is>
+          <t>Update SOP Info</t>
+        </is>
+      </c>
+      <c r="F29" s="42" t="inlineStr">
+        <is>
+          <t>2025-05-25 09:26:19</t>
+        </is>
+      </c>
+      <c r="G29" s="42" t="inlineStr">
+        <is>
+          <t>傅O平</t>
+        </is>
+      </c>
+      <c r="H29" s="17" t="inlineStr"/>
     </row>
     <row r="30" ht="32.25" customHeight="1">
-      <c r="A30" s="1" t="n"/>
-      <c r="I30" s="1" t="n"/>
+      <c r="B30" s="2" t="inlineStr"/>
+      <c r="C30" s="42" t="inlineStr">
+        <is>
+          <t>S000000011</t>
+        </is>
+      </c>
+      <c r="D30" s="42" t="inlineStr">
+        <is>
+          <t>校內獎助學金申請流程</t>
+        </is>
+      </c>
+      <c r="E30" s="42" t="inlineStr">
+        <is>
+          <t>Update SOP Process</t>
+        </is>
+      </c>
+      <c r="F30" s="42" t="inlineStr">
+        <is>
+          <t>2025-05-25 09:26:52</t>
+        </is>
+      </c>
+      <c r="G30" s="42" t="inlineStr">
+        <is>
+          <t>葉O榮</t>
+        </is>
+      </c>
+      <c r="H30" s="17" t="inlineStr"/>
     </row>
     <row r="31" ht="32.25" customHeight="1">
-      <c r="A31" s="1" t="n"/>
-      <c r="I31" s="1" t="n"/>
+      <c r="B31" s="2" t="inlineStr"/>
+      <c r="C31" s="42" t="inlineStr">
+        <is>
+          <t>S000000011</t>
+        </is>
+      </c>
+      <c r="D31" s="42" t="inlineStr">
+        <is>
+          <t>校內獎助學金申請流程</t>
+        </is>
+      </c>
+      <c r="E31" s="42" t="inlineStr">
+        <is>
+          <t>Update SOP Process</t>
+        </is>
+      </c>
+      <c r="F31" s="42" t="inlineStr">
+        <is>
+          <t>2025-05-25 09:29:57</t>
+        </is>
+      </c>
+      <c r="G31" s="42" t="inlineStr">
+        <is>
+          <t>葉O榮</t>
+        </is>
+      </c>
+      <c r="H31" s="17" t="inlineStr"/>
     </row>
     <row r="32" ht="32.25" customHeight="1">
-      <c r="A32" s="1" t="n"/>
-      <c r="I32" s="1" t="n"/>
+      <c r="B32" s="2" t="inlineStr"/>
+      <c r="C32" s="42" t="inlineStr">
+        <is>
+          <t>S000000013</t>
+        </is>
+      </c>
+      <c r="D32" s="42" t="inlineStr">
+        <is>
+          <t>學生獎懲建議</t>
+        </is>
+      </c>
+      <c r="E32" s="42" t="inlineStr">
+        <is>
+          <t>create</t>
+        </is>
+      </c>
+      <c r="F32" s="42" t="inlineStr">
+        <is>
+          <t>2025-05-25 08:41:17</t>
+        </is>
+      </c>
+      <c r="G32" s="42" t="inlineStr">
+        <is>
+          <t>傅O平</t>
+        </is>
+      </c>
+      <c r="H32" s="17" t="inlineStr"/>
     </row>
     <row r="33" ht="32.25" customHeight="1">
-      <c r="A33" s="1" t="n"/>
-      <c r="I33" s="1" t="n"/>
+      <c r="B33" s="2" t="inlineStr"/>
+      <c r="C33" s="42" t="inlineStr">
+        <is>
+          <t>S000000013</t>
+        </is>
+      </c>
+      <c r="D33" s="42" t="inlineStr">
+        <is>
+          <t>學生獎懲建議</t>
+        </is>
+      </c>
+      <c r="E33" s="42" t="inlineStr">
+        <is>
+          <t>Update SOP Process</t>
+        </is>
+      </c>
+      <c r="F33" s="42" t="inlineStr">
+        <is>
+          <t>2025-05-25 08:44:46</t>
+        </is>
+      </c>
+      <c r="G33" s="42" t="inlineStr">
+        <is>
+          <t>葉O榮</t>
+        </is>
+      </c>
+      <c r="H33" s="17" t="inlineStr"/>
     </row>
     <row r="34" ht="32.25" customHeight="1">
       <c r="A34" s="1" t="n"/>
-      <c r="B34" s="29" t="n"/>
-      <c r="C34" s="30" t="n"/>
-      <c r="D34" s="30" t="n"/>
-      <c r="E34" s="30" t="n"/>
-      <c r="F34" s="30" t="n"/>
-      <c r="G34" s="30" t="n"/>
-      <c r="H34" s="29" t="n"/>
+      <c r="B34" s="2" t="n"/>
+      <c r="C34" s="41" t="n"/>
+      <c r="D34" s="42" t="n"/>
+      <c r="E34" s="42" t="n"/>
+      <c r="F34" s="44" t="n"/>
+      <c r="G34" s="42" t="n"/>
+      <c r="H34" s="4" t="n"/>
       <c r="I34" s="1" t="n"/>
     </row>
     <row r="35" ht="32.25" customHeight="1">
-      <c r="A35" s="21" t="n"/>
-      <c r="B35" s="29" t="n"/>
-      <c r="C35" s="30" t="n"/>
-      <c r="D35" s="30" t="n"/>
-      <c r="E35" s="30" t="n"/>
-      <c r="F35" s="30" t="n"/>
-      <c r="G35" s="30" t="n"/>
-      <c r="H35" s="29" t="n"/>
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="5" t="n"/>
+      <c r="C35" s="6" t="n"/>
+      <c r="D35" s="6" t="n"/>
+      <c r="E35" s="6" t="n"/>
+      <c r="F35" s="6" t="n"/>
+      <c r="G35" s="6" t="n"/>
+      <c r="H35" s="7" t="n"/>
       <c r="I35" s="1" t="n"/>
     </row>
     <row r="36" ht="32.25" customHeight="1">
       <c r="A36" s="1" t="n"/>
-      <c r="B36" s="29" t="n"/>
-      <c r="C36" s="30" t="n"/>
-      <c r="D36" s="30" t="n"/>
-      <c r="E36" s="30" t="n"/>
-      <c r="F36" s="30" t="n"/>
-      <c r="G36" s="30" t="n"/>
-      <c r="H36" s="29" t="n"/>
       <c r="I36" s="1" t="n"/>
     </row>
     <row r="37" ht="32.25" customHeight="1">
-      <c r="B37" s="29" t="n"/>
-      <c r="C37" s="30" t="n"/>
-      <c r="D37" s="30" t="n"/>
-      <c r="E37" s="30" t="n"/>
-      <c r="F37" s="30" t="n"/>
-      <c r="G37" s="30" t="n"/>
-      <c r="H37" s="29" t="n"/>
+      <c r="A37" s="1" t="n"/>
+      <c r="I37" s="1" t="n"/>
     </row>
     <row r="38" ht="32.25" customHeight="1">
-      <c r="B38" s="29" t="n"/>
-      <c r="C38" s="30" t="n"/>
-      <c r="D38" s="30" t="n"/>
-      <c r="E38" s="30" t="n"/>
-      <c r="F38" s="30" t="n"/>
-      <c r="G38" s="30" t="n"/>
-      <c r="H38" s="29" t="n"/>
+      <c r="A38" s="1" t="n"/>
+      <c r="I38" s="1" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="I39" s="1" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="I40" s="1" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="I41" s="1" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="I42" s="1" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="I43" s="1" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="I44" s="1" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="I45" s="1" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="I46" s="1" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="I47" s="1" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="I48" s="1" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="I49" s="1" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="I50" s="1" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="I51" s="1" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n"/>
+      <c r="I52" s="1" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="I53" s="1" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="I54" s="1" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="I55" s="1" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="29" t="n"/>
+      <c r="C56" s="30" t="n"/>
+      <c r="D56" s="30" t="n"/>
+      <c r="E56" s="30" t="n"/>
+      <c r="F56" s="30" t="n"/>
+      <c r="G56" s="30" t="n"/>
+      <c r="H56" s="29" t="n"/>
+      <c r="I56" s="1" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="21" t="n"/>
+      <c r="B57" s="29" t="n"/>
+      <c r="C57" s="30" t="n"/>
+      <c r="D57" s="30" t="n"/>
+      <c r="E57" s="30" t="n"/>
+      <c r="F57" s="30" t="n"/>
+      <c r="G57" s="30" t="n"/>
+      <c r="H57" s="29" t="n"/>
+      <c r="I57" s="1" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="29" t="n"/>
+      <c r="C58" s="30" t="n"/>
+      <c r="D58" s="30" t="n"/>
+      <c r="E58" s="30" t="n"/>
+      <c r="F58" s="30" t="n"/>
+      <c r="G58" s="30" t="n"/>
+      <c r="H58" s="29" t="n"/>
+      <c r="I58" s="1" t="n"/>
+    </row>
+    <row r="59">
+      <c r="B59" s="29" t="n"/>
+      <c r="C59" s="30" t="n"/>
+      <c r="D59" s="30" t="n"/>
+      <c r="E59" s="30" t="n"/>
+      <c r="F59" s="30" t="n"/>
+      <c r="G59" s="30" t="n"/>
+      <c r="H59" s="29" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="29" t="n"/>
+      <c r="C60" s="30" t="n"/>
+      <c r="D60" s="30" t="n"/>
+      <c r="E60" s="30" t="n"/>
+      <c r="F60" s="30" t="n"/>
+      <c r="G60" s="30" t="n"/>
+      <c r="H60" s="29" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
